--- a/Planillas/planilla de stock (costo y venta).xlsx
+++ b/Planillas/planilla de stock (costo y venta).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzo_\Desktop\Olivos_Combustibles_SRL\Olivos_Combustibles_SRL\Planillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17C83306-6124-4382-9ED7-23A8BF2F4F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97D5A24-A117-471F-8440-7476A09EAA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,8 +36,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Enzo Carossi</author>
+  </authors>
+  <commentList>
+    <comment ref="G41" authorId="0" shapeId="0" xr:uid="{32BA5B00-C0C6-4229-8D84-B188C3EB55B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enzo Carossi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+POR LITRO
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>GTX 20W-50 X 4L</t>
   </si>
@@ -60,9 +95,6 @@
     <t>GO! 2T X 1L</t>
   </si>
   <si>
-    <t>MAGNATEC 10W-40 X 1L</t>
-  </si>
-  <si>
     <t>MAGNATEC 5W-40 X 1L</t>
   </si>
   <si>
@@ -147,9 +179,6 @@
     <t>LIQUI MOLI DIESEL</t>
   </si>
   <si>
-    <t>Caja Cerrada</t>
-  </si>
-  <si>
     <t>Producto por unidad</t>
   </si>
   <si>
@@ -165,10 +194,16 @@
     <t>GUANTES L</t>
   </si>
   <si>
-    <t>PAPEL BAÑO</t>
-  </si>
-  <si>
-    <t>PAPEL MANOS</t>
+    <t>AGOTADO</t>
+  </si>
+  <si>
+    <t>ACEITE SUELTO 20W-50</t>
+  </si>
+  <si>
+    <t>1500 L (LITROS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGNATEC 10W-40 X 1L </t>
   </si>
 </sst>
 </file>
@@ -178,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +243,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -542,15 +590,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,35 +638,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -653,7 +701,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -705,7 +753,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -906,530 +954,617 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
     <col min="3" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:9" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12" t="s">
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="C5" s="25">
+        <v>8</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27">
+        <v>45721.61</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="C6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="C7" s="19">
+        <v>8</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="28">
+        <v>68517.429999999993</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="C8" s="19">
+        <v>32</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="28">
+        <v>55422.03</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="C9" s="19">
         <v>5</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19">
+        <v>163</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="28">
+        <v>89155.53</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="19">
+        <v>74</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="28">
+        <v>42260.22</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="19">
+        <v>163</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="28">
+        <v>58196.46</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="19">
+        <v>97</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="28">
+        <v>53347.65</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="19">
+        <v>192</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="28">
+        <v>30446.43</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="19">
+        <v>97</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="28">
+        <v>47721.61</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+      <c r="C18" s="19">
+        <v>22</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="28">
+        <v>70275.41</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+      <c r="C19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="19">
+        <v>16</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="28">
+        <v>88346.91</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="19">
+        <v>30</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="28">
+        <v>39777.68</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="19">
+        <v>40</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="19">
+        <v>3</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="19">
+        <v>23</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="19">
+        <v>17</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="19">
+        <v>25</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="19">
+        <v>58</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
+      <c r="C32" s="19">
+        <v>33</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="19">
+        <v>17</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="19">
         <v>12</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
+      <c r="C36" s="19">
+        <v>3</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="28">
+        <v>71599.850000000006</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="7"/>
+      <c r="C38" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="7"/>
+      <c r="B39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="28">
+        <v>1387</v>
+      </c>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="5"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="5"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="7"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="22"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="23">
+      <c r="B48" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="13">
         <f>SUM(G5:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="27">
+        <v>762175.82000000007</v>
+      </c>
+      <c r="H48" s="14">
         <f>SUM(H5:H47)</f>
         <v>0</v>
       </c>
@@ -1437,14 +1572,72 @@
     <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E37:F37"/>
@@ -1461,74 +1654,17 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>